--- a/NoInitialDeath/AerobicNID/OdorAero.xlsx
+++ b/NoInitialDeath/AerobicNID/OdorAero.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,7 +15,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191028"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +37,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -374,7 +374,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -388,9 +388,9 @@
       <selection activeCell="D128" sqref="D128"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1">
         <v>0</v>
       </c>
@@ -398,7 +398,7 @@
         <v>1.0916666666666672E-2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2">
         <v>20</v>
       </c>
@@ -406,7 +406,7 @@
         <v>1.0666666666666672E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:2">
       <c r="A3">
         <v>40</v>
       </c>
@@ -414,7 +414,7 @@
         <v>1.3083333333333336E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:2">
       <c r="A4">
         <v>60</v>
       </c>
@@ -422,7 +422,7 @@
         <v>1.5833333333333338E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:2">
       <c r="A5">
         <v>80</v>
       </c>
@@ -430,7 +430,7 @@
         <v>6.5000000000000197E-3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:2">
       <c r="A6">
         <v>100</v>
       </c>
@@ -438,7 +438,7 @@
         <v>1.7250000000000015E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:2">
       <c r="A7">
         <v>120</v>
       </c>
@@ -446,7 +446,7 @@
         <v>3.7916666666666682E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:2">
       <c r="A8">
         <v>140</v>
       </c>
@@ -454,7 +454,7 @@
         <v>7.3749999999999982E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:2">
       <c r="A9">
         <v>160</v>
       </c>
@@ -462,7 +462,7 @@
         <v>0.13075000000000003</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:2">
       <c r="A10">
         <v>180</v>
       </c>
@@ -470,7 +470,7 @@
         <v>0.21025000000000002</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:2">
       <c r="A11">
         <v>200</v>
       </c>
@@ -478,7 +478,7 @@
         <v>0.29374999999999996</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:2">
       <c r="A12">
         <v>220</v>
       </c>
@@ -486,7 +486,7 @@
         <v>0.36233333333333334</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2">
       <c r="A13">
         <v>240</v>
       </c>
@@ -494,7 +494,7 @@
         <v>0.42775000000000019</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2">
       <c r="A14">
         <v>260</v>
       </c>
@@ -502,7 +502,7 @@
         <v>0.50124999999999997</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:2">
       <c r="A15">
         <v>280</v>
       </c>
@@ -510,7 +510,7 @@
         <v>0.57316666666666671</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:2">
       <c r="A16">
         <v>300</v>
       </c>
@@ -518,7 +518,7 @@
         <v>0.6403333333333332</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:2">
       <c r="A17">
         <v>320</v>
       </c>
@@ -526,7 +526,7 @@
         <v>0.68591666666666673</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:2">
       <c r="A18">
         <v>340</v>
       </c>
@@ -534,7 +534,7 @@
         <v>0.72416666666666674</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:2">
       <c r="A19">
         <v>360</v>
       </c>
@@ -542,7 +542,7 @@
         <v>0.76016666666666666</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:2">
       <c r="A20">
         <v>380</v>
       </c>
@@ -550,7 +550,7 @@
         <v>0.79408333333333336</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:2">
       <c r="A21">
         <v>400</v>
       </c>
@@ -558,7 +558,7 @@
         <v>0.82633333333333336</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:2">
       <c r="A22">
         <v>420</v>
       </c>
@@ -566,7 +566,7 @@
         <v>0.85433333333333328</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:2">
       <c r="A23">
         <v>440</v>
       </c>
@@ -574,7 +574,7 @@
         <v>0.88049999999999984</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:2">
       <c r="A24">
         <v>460</v>
       </c>
@@ -582,7 +582,7 @@
         <v>0.90325</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:2">
       <c r="A25">
         <v>480</v>
       </c>
@@ -590,7 +590,7 @@
         <v>0.92574999999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:2">
       <c r="A26">
         <v>500</v>
       </c>
@@ -598,7 +598,7 @@
         <v>0.94625000000000015</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:2">
       <c r="A27">
         <v>520</v>
       </c>
@@ -606,7 +606,7 @@
         <v>0.96933333333333338</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:2">
       <c r="A28">
         <v>540</v>
       </c>
@@ -614,7 +614,7 @@
         <v>0.99574999999999991</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:2">
       <c r="A29">
         <v>560</v>
       </c>
@@ -622,7 +622,7 @@
         <v>1.0236666666666667</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:2">
       <c r="A30">
         <v>580</v>
       </c>
@@ -630,7 +630,7 @@
         <v>1.0469166666666667</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:2">
       <c r="A31">
         <v>600</v>
       </c>
@@ -638,7 +638,7 @@
         <v>1.06775</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:2">
       <c r="A32">
         <v>620</v>
       </c>
@@ -646,7 +646,7 @@
         <v>1.0859999999999999</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:2">
       <c r="A33">
         <v>640</v>
       </c>
@@ -654,7 +654,7 @@
         <v>1.1018333333333334</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2">
       <c r="A34">
         <v>660</v>
       </c>
@@ -662,7 +662,7 @@
         <v>1.1149166666666666</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:2">
       <c r="A35">
         <v>680</v>
       </c>
@@ -670,7 +670,7 @@
         <v>1.1274166666666667</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:2">
       <c r="A36">
         <v>700</v>
       </c>
@@ -678,7 +678,7 @@
         <v>1.1399999999999999</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:2">
       <c r="A37">
         <v>720</v>
       </c>
@@ -686,7 +686,7 @@
         <v>1.1515</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:2">
       <c r="A38">
         <v>740</v>
       </c>
@@ -694,7 +694,7 @@
         <v>1.1629999999999998</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:2">
       <c r="A39">
         <v>760</v>
       </c>
@@ -702,7 +702,7 @@
         <v>1.17275</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:2">
       <c r="A40">
         <v>780</v>
       </c>
@@ -710,7 +710,7 @@
         <v>1.1812499999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:2">
       <c r="A41">
         <v>800</v>
       </c>
@@ -718,7 +718,7 @@
         <v>1.1905833333333335</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:2">
       <c r="A42">
         <v>820</v>
       </c>
@@ -726,7 +726,7 @@
         <v>1.1986666666666665</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:2">
       <c r="A43">
         <v>840</v>
       </c>
@@ -734,7 +734,7 @@
         <v>1.2075</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:2">
       <c r="A44">
         <v>860</v>
       </c>
@@ -742,7 +742,7 @@
         <v>1.2172499999999997</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:2">
       <c r="A45">
         <v>880</v>
       </c>
@@ -750,7 +750,7 @@
         <v>1.2262500000000003</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:2">
       <c r="A46">
         <v>900</v>
       </c>
@@ -758,7 +758,7 @@
         <v>1.2360000000000002</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:2">
       <c r="A47">
         <v>920</v>
       </c>
@@ -766,7 +766,7 @@
         <v>1.2490833333333335</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:2">
       <c r="A48">
         <v>940</v>
       </c>
@@ -774,7 +774,7 @@
         <v>1.2589166666666667</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:2">
       <c r="A49">
         <v>960</v>
       </c>
@@ -782,7 +782,7 @@
         <v>1.2666666666666671</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:2">
       <c r="A50">
         <v>980</v>
       </c>
@@ -790,7 +790,7 @@
         <v>1.2731666666666668</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:2">
       <c r="A51">
         <v>1000</v>
       </c>
@@ -798,7 +798,7 @@
         <v>1.2784166666666668</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:2">
       <c r="A52">
         <v>1020</v>
       </c>
@@ -806,7 +806,7 @@
         <v>1.284833333333333</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:2">
       <c r="A53">
         <v>1040</v>
       </c>
@@ -814,7 +814,7 @@
         <v>1.2906666666666669</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:2">
       <c r="A54">
         <v>1060</v>
       </c>
@@ -822,7 +822,7 @@
         <v>1.29725</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:2">
       <c r="A55">
         <v>1080</v>
       </c>
@@ -830,7 +830,7 @@
         <v>1.3038333333333334</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:2">
       <c r="A56">
         <v>1100</v>
       </c>
@@ -838,7 +838,7 @@
         <v>1.31125</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:2">
       <c r="A57">
         <v>1120</v>
       </c>
@@ -846,7 +846,7 @@
         <v>1.3166666666666669</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:2">
       <c r="A58">
         <v>1140</v>
       </c>
@@ -854,7 +854,7 @@
         <v>1.32375</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:2">
       <c r="A59">
         <v>1160</v>
       </c>
@@ -862,7 +862,7 @@
         <v>1.3299166666666666</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:2">
       <c r="A60">
         <v>1180</v>
       </c>
@@ -870,7 +870,7 @@
         <v>1.3419166666666666</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:2">
       <c r="A61">
         <v>1200</v>
       </c>
@@ -878,7 +878,7 @@
         <v>1.3465833333333332</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:2">
       <c r="A62">
         <v>1220</v>
       </c>
@@ -886,7 +886,7 @@
         <v>1.3534999999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:2">
       <c r="A63">
         <v>1240</v>
       </c>
@@ -894,7 +894,7 @@
         <v>1.3566666666666665</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:2">
       <c r="A64">
         <v>1260</v>
       </c>
@@ -902,7 +902,7 @@
         <v>1.3595833333333334</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:2">
       <c r="A65">
         <v>1280</v>
       </c>
@@ -910,7 +910,7 @@
         <v>1.3644999999999998</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:2">
       <c r="A66">
         <v>1300</v>
       </c>
@@ -918,7 +918,7 @@
         <v>1.3693333333333335</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:2">
       <c r="A67">
         <v>1320</v>
       </c>
@@ -926,7 +926,7 @@
         <v>1.3727499999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:2">
       <c r="A68">
         <v>1340</v>
       </c>
@@ -934,7 +934,7 @@
         <v>1.3755000000000002</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:2">
       <c r="A69">
         <v>1360</v>
       </c>
@@ -942,7 +942,7 @@
         <v>1.3789166666666668</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:2">
       <c r="A70">
         <v>1380</v>
       </c>
@@ -950,7 +950,7 @@
         <v>1.3813333333333335</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:2">
       <c r="A71">
         <v>1400</v>
       </c>
@@ -958,7 +958,7 @@
         <v>1.3835000000000002</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:2">
       <c r="A72">
         <v>1420</v>
       </c>
@@ -966,7 +966,7 @@
         <v>1.3849999999999998</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:2">
       <c r="A73">
         <v>1440</v>
       </c>
@@ -974,7 +974,7 @@
         <v>1.3878333333333335</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:2">
       <c r="A74">
         <v>1460</v>
       </c>
@@ -982,7 +982,7 @@
         <v>1.3884166666666666</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:2">
       <c r="A75">
         <v>1480</v>
       </c>
@@ -990,7 +990,7 @@
         <v>1.3902500000000002</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:2">
       <c r="A76">
         <v>1500</v>
       </c>
@@ -998,7 +998,7 @@
         <v>1.3920833333333333</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:2">
       <c r="A77">
         <v>1520</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>1.3923333333333334</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:2">
       <c r="A78">
         <v>1540</v>
       </c>
@@ -1014,7 +1014,7 @@
         <v>1.3918333333333333</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:2">
       <c r="A79">
         <v>1560</v>
       </c>
@@ -1022,7 +1022,7 @@
         <v>1.3904166666666666</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:2">
       <c r="A80">
         <v>1580</v>
       </c>
@@ -1030,7 +1030,7 @@
         <v>1.3888333333333334</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:2">
       <c r="A81">
         <v>1600</v>
       </c>
@@ -1038,7 +1038,7 @@
         <v>1.3871666666666669</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:2">
       <c r="A82">
         <v>1620</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>1.3852500000000001</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:2">
       <c r="A83">
         <v>1640</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>1.3841666666666668</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:2">
       <c r="A84">
         <v>1660</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>1.3819166666666667</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:2">
       <c r="A85">
         <v>1680</v>
       </c>
@@ -1070,7 +1070,7 @@
         <v>1.3813333333333335</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:2">
       <c r="A86">
         <v>1700</v>
       </c>
@@ -1078,7 +1078,7 @@
         <v>1.3767500000000001</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:2">
       <c r="A87">
         <v>1720</v>
       </c>
@@ -1086,7 +1086,7 @@
         <v>1.3728333333333333</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:2">
       <c r="A88">
         <v>1740</v>
       </c>
@@ -1094,7 +1094,7 @@
         <v>1.3710833333333334</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:2">
       <c r="A89">
         <v>1760</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>1.3665833333333333</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:2">
       <c r="A90">
         <v>1780</v>
       </c>
@@ -1110,7 +1110,7 @@
         <v>1.36375</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:2">
       <c r="A91">
         <v>1800</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>1.3614166666666665</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:2">
       <c r="A92">
         <v>1820</v>
       </c>
@@ -1126,7 +1126,7 @@
         <v>1.3594166666666667</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:2">
       <c r="A93">
         <v>1840</v>
       </c>
@@ -1134,7 +1134,7 @@
         <v>1.3544166666666668</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:2">
       <c r="A94">
         <v>1860</v>
       </c>
@@ -1142,7 +1142,7 @@
         <v>1.3506666666666667</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:2">
       <c r="A95">
         <v>1880</v>
       </c>
@@ -1150,7 +1150,7 @@
         <v>1.3479166666666669</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:2">
       <c r="A96">
         <v>1900</v>
       </c>
@@ -1158,7 +1158,7 @@
         <v>1.3458333333333334</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:2">
       <c r="A97">
         <v>1920</v>
       </c>
@@ -1166,7 +1166,7 @@
         <v>1.3448333333333333</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:2">
       <c r="A98">
         <v>1940</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>1.3415833333333333</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:2">
       <c r="A99">
         <v>1960</v>
       </c>
@@ -1182,7 +1182,7 @@
         <v>1.3401666666666665</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:2">
       <c r="A100">
         <v>1980</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>1.3374166666666669</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:2">
       <c r="A101">
         <v>2000</v>
       </c>
@@ -1198,7 +1198,7 @@
         <v>1.3350833333333334</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:2">
       <c r="A102">
         <v>2020</v>
       </c>
@@ -1206,7 +1206,7 @@
         <v>1.3336666666666666</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:2">
       <c r="A103">
         <v>2040</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>1.3308333333333331</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:2">
       <c r="A104">
         <v>2060</v>
       </c>
@@ -1222,7 +1222,7 @@
         <v>1.3310833333333334</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:2">
       <c r="A105">
         <v>2080</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>1.3273333333333333</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:2">
       <c r="A106">
         <v>2100</v>
       </c>
@@ -1238,7 +1238,7 @@
         <v>1.3260000000000001</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:2">
       <c r="A107">
         <v>2120</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>1.3259166666666669</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:2">
       <c r="A108">
         <v>2140</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>1.3255000000000001</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:2">
       <c r="A109">
         <v>2160</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>1.3220833333333335</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:2">
       <c r="A110">
         <v>2180</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>1.3198333333333334</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:2">
       <c r="A111">
         <v>2200</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>1.3165833333333332</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:2">
       <c r="A112">
         <v>2220</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>1.31575</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:2">
       <c r="A113">
         <v>2240</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>1.3143333333333331</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:2">
       <c r="A114">
         <v>2260</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>1.3128333333333333</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:2">
       <c r="A115">
         <v>2280</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>1.3118333333333332</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:2">
       <c r="A116">
         <v>2300</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>1.3110000000000002</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:2">
       <c r="A117">
         <v>2320</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>1.3096666666666665</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:2">
       <c r="A118">
         <v>2340</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>1.3095000000000003</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:2">
       <c r="A119">
         <v>2360</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>1.3108333333333333</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:2">
       <c r="A120">
         <v>2380</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>1.3085</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:2">
       <c r="A121">
         <v>2400</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>1.3104999999999998</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:2">
       <c r="A122">
         <v>2420</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>1.3110000000000002</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:2">
       <c r="A123">
         <v>2440</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>1.3104166666666666</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:2">
       <c r="A124">
         <v>2460</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>1.3105</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:2">
       <c r="A125">
         <v>2480</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>1.3102500000000001</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:2">
       <c r="A126">
         <v>2500</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>1.3091666666666668</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:2">
       <c r="A127">
         <v>2520</v>
       </c>
@@ -1406,7 +1406,7 @@
         <v>1.3098333333333334</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:2">
       <c r="A128">
         <v>2540</v>
       </c>
@@ -1414,7 +1414,7 @@
         <v>1.3116666666666665</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:2">
       <c r="A129">
         <v>2560</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>1.3119166666666668</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:2">
       <c r="A130">
         <v>2580</v>
       </c>
@@ -1430,7 +1430,7 @@
         <v>1.31325</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:2">
       <c r="A131">
         <v>2600</v>
       </c>
@@ -1438,7 +1438,7 @@
         <v>1.3138333333333332</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:2">
       <c r="A132">
         <v>2620</v>
       </c>
@@ -1446,7 +1446,7 @@
         <v>1.3142499999999999</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:2">
       <c r="A133">
         <v>2640</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>1.3139999999999998</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:2">
       <c r="A134">
         <v>2660</v>
       </c>
@@ -1462,7 +1462,7 @@
         <v>1.3120833333333335</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:2">
       <c r="A135">
         <v>2680</v>
       </c>
@@ -1470,7 +1470,7 @@
         <v>1.3102499999999999</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:2">
       <c r="A136">
         <v>2700</v>
       </c>
@@ -1478,7 +1478,7 @@
         <v>1.3091666666666666</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:2">
       <c r="A137">
         <v>2720</v>
       </c>
@@ -1486,7 +1486,7 @@
         <v>1.3086666666666666</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:2">
       <c r="A138">
         <v>2740</v>
       </c>
@@ -1494,7 +1494,7 @@
         <v>1.3089999999999999</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:2">
       <c r="A139">
         <v>2760</v>
       </c>
@@ -1502,7 +1502,7 @@
         <v>1.3064166666666666</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:2">
       <c r="A140">
         <v>2780</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>1.3064166666666668</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:2">
       <c r="A141">
         <v>2800</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>1.306</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:2">
       <c r="A142">
         <v>2820</v>
       </c>
@@ -1526,7 +1526,7 @@
         <v>1.3067500000000003</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:2">
       <c r="A143">
         <v>2840</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>1.3045000000000002</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:2">
       <c r="A144">
         <v>2860</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>1.3037499999999997</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:2">
       <c r="A145">
         <v>2880</v>
       </c>

--- a/NoInitialDeath/AerobicNID/OdorAero.xlsx
+++ b/NoInitialDeath/AerobicNID/OdorAero.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26012"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fa296b65799f4cf3/Growth-Curves/CF-Growth-Curves/Aerobic Growth/FullData/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fa296b65799f4cf3/Growth-Curves/CF-Growth-Curves/NoInitialDeath/AerobicNID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3088D1FF-25ED-6049-9274-40EFC49AFD60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="8_{3088D1FF-25ED-6049-9274-40EFC49AFD60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9223C5F8-0CD6-084E-B2E3-39ADA1984C80}"/>
   <bookViews>
     <workbookView xWindow="1980" yWindow="2500" windowWidth="26440" windowHeight="14100" xr2:uid="{97733456-4D67-AB47-90E5-D71233215CC7}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -384,1170 +384,1170 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A641D5D2-4723-904F-9CD4-BF6D9244CA96}">
   <dimension ref="A1:B145"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A125" workbookViewId="0">
-      <selection activeCell="D128" sqref="D128"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.95"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1">
         <v>0</v>
       </c>
       <c r="B1">
-        <v>1.0916666666666672E-2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
+        <v>9.8166666666666666E-2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>20</v>
       </c>
       <c r="B2">
-        <v>1.0666666666666672E-2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
+        <v>9.7666666666666666E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>40</v>
       </c>
       <c r="B3">
-        <v>1.3083333333333336E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
+        <v>0.10033333333333333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>60</v>
       </c>
       <c r="B4">
-        <v>1.5833333333333338E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+        <v>0.10433333333333333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>80</v>
       </c>
       <c r="B5">
-        <v>6.5000000000000197E-3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>0.1125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>100</v>
       </c>
       <c r="B6">
-        <v>1.7250000000000015E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>0.1265</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>120</v>
       </c>
       <c r="B7">
-        <v>3.7916666666666682E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>0.14916666666666667</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>140</v>
       </c>
       <c r="B8">
-        <v>7.3749999999999982E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
+        <v>0.18799999999999997</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>160</v>
       </c>
       <c r="B9">
-        <v>0.13075000000000003</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
+        <v>0.24650000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>180</v>
       </c>
       <c r="B10">
-        <v>0.21025000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
+        <v>0.32700000000000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>200</v>
       </c>
       <c r="B11">
-        <v>0.29374999999999996</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
+        <v>0.41199999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>220</v>
       </c>
       <c r="B12">
-        <v>0.36233333333333334</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
+        <v>0.48133333333333334</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>240</v>
       </c>
       <c r="B13">
-        <v>0.42775000000000019</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
+        <v>0.54700000000000015</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>260</v>
       </c>
       <c r="B14">
-        <v>0.50124999999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
+        <v>0.62049999999999994</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>280</v>
       </c>
       <c r="B15">
-        <v>0.57316666666666671</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2">
+        <v>0.69416666666666671</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>300</v>
       </c>
       <c r="B16">
-        <v>0.6403333333333332</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2">
+        <v>0.76183333333333325</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>320</v>
       </c>
       <c r="B17">
-        <v>0.68591666666666673</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2">
+        <v>0.80866666666666676</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>340</v>
       </c>
       <c r="B18">
-        <v>0.72416666666666674</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2">
+        <v>0.84716666666666673</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>360</v>
       </c>
       <c r="B19">
-        <v>0.76016666666666666</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2">
+        <v>0.88416666666666666</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>380</v>
       </c>
       <c r="B20">
-        <v>0.79408333333333336</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2">
+        <v>0.91833333333333333</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>400</v>
       </c>
       <c r="B21">
-        <v>0.82633333333333336</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2">
+        <v>0.95033333333333336</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>420</v>
       </c>
       <c r="B22">
-        <v>0.85433333333333328</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2">
+        <v>0.97933333333333328</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>440</v>
       </c>
       <c r="B23">
-        <v>0.88049999999999984</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2">
+        <v>1.0054999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>460</v>
       </c>
       <c r="B24">
-        <v>0.90325</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>480</v>
       </c>
       <c r="B25">
-        <v>0.92574999999999996</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2">
+        <v>1.0525</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>500</v>
       </c>
       <c r="B26">
-        <v>0.94625000000000015</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2">
+        <v>1.0735000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>520</v>
       </c>
       <c r="B27">
-        <v>0.96933333333333338</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2">
+        <v>1.0968333333333333</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>540</v>
       </c>
       <c r="B28">
-        <v>0.99574999999999991</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2">
+        <v>1.1234999999999999</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>560</v>
       </c>
       <c r="B29">
-        <v>1.0236666666666667</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2">
+        <v>1.1506666666666667</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>580</v>
       </c>
       <c r="B30">
-        <v>1.0469166666666667</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2">
+        <v>1.1746666666666667</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>600</v>
       </c>
       <c r="B31">
-        <v>1.06775</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2">
+        <v>1.196</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>620</v>
       </c>
       <c r="B32">
-        <v>1.0859999999999999</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2">
+        <v>1.2144999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>640</v>
       </c>
       <c r="B33">
-        <v>1.1018333333333334</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2">
+        <v>1.2303333333333335</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>660</v>
       </c>
       <c r="B34">
-        <v>1.1149166666666666</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2">
+        <v>1.2441666666666666</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>680</v>
       </c>
       <c r="B35">
-        <v>1.1274166666666667</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2">
+        <v>1.2571666666666668</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>700</v>
       </c>
       <c r="B36">
-        <v>1.1399999999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2">
+        <v>1.2694999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>720</v>
       </c>
       <c r="B37">
-        <v>1.1515</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2">
+        <v>1.2809999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>740</v>
       </c>
       <c r="B38">
-        <v>1.1629999999999998</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2">
+        <v>1.2924999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>760</v>
       </c>
       <c r="B39">
-        <v>1.17275</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2">
+        <v>1.3025</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>780</v>
       </c>
       <c r="B40">
-        <v>1.1812499999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2">
+        <v>1.3114999999999999</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>800</v>
       </c>
       <c r="B41">
-        <v>1.1905833333333335</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2">
+        <v>1.3208333333333335</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>820</v>
       </c>
       <c r="B42">
-        <v>1.1986666666666665</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2">
+        <v>1.3286666666666667</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>840</v>
       </c>
       <c r="B43">
-        <v>1.2075</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2">
+        <v>1.3375000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>860</v>
       </c>
       <c r="B44">
-        <v>1.2172499999999997</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2">
+        <v>1.3464999999999998</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>880</v>
       </c>
       <c r="B45">
-        <v>1.2262500000000003</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2">
+        <v>1.3550000000000002</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>900</v>
       </c>
       <c r="B46">
-        <v>1.2360000000000002</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2">
+        <v>1.3645000000000003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>920</v>
       </c>
       <c r="B47">
-        <v>1.2490833333333335</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2">
+        <v>1.3753333333333335</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>940</v>
       </c>
       <c r="B48">
-        <v>1.2589166666666667</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2">
+        <v>1.3836666666666666</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>960</v>
       </c>
       <c r="B49">
-        <v>1.2666666666666671</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2">
+        <v>1.3906666666666669</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>980</v>
       </c>
       <c r="B50">
-        <v>1.2731666666666668</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2">
+        <v>1.3956666666666668</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1000</v>
       </c>
       <c r="B51">
-        <v>1.2784166666666668</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2">
+        <v>1.4006666666666667</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1020</v>
       </c>
       <c r="B52">
-        <v>1.284833333333333</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2">
+        <v>1.4053333333333331</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1040</v>
       </c>
       <c r="B53">
-        <v>1.2906666666666669</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2">
+        <v>1.4101666666666668</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1060</v>
       </c>
       <c r="B54">
-        <v>1.29725</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2">
+        <v>1.4145000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1080</v>
       </c>
       <c r="B55">
-        <v>1.3038333333333334</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2">
+        <v>1.4188333333333334</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1100</v>
       </c>
       <c r="B56">
-        <v>1.31125</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2">
+        <v>1.4235</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1120</v>
       </c>
       <c r="B57">
-        <v>1.3166666666666669</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2">
+        <v>1.4281666666666668</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1140</v>
       </c>
       <c r="B58">
-        <v>1.32375</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2">
+        <v>1.4324999999999999</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1160</v>
       </c>
       <c r="B59">
-        <v>1.3299166666666666</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2">
+        <v>1.4366666666666665</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1180</v>
       </c>
       <c r="B60">
-        <v>1.3419166666666666</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2">
+        <v>1.4406666666666668</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61">
         <v>1200</v>
       </c>
       <c r="B61">
-        <v>1.3465833333333332</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2">
+        <v>1.4438333333333333</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62">
         <v>1220</v>
       </c>
       <c r="B62">
-        <v>1.3534999999999999</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2">
+        <v>1.4484999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63">
         <v>1240</v>
       </c>
       <c r="B63">
-        <v>1.3566666666666665</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2">
+        <v>1.4531666666666665</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64">
         <v>1260</v>
       </c>
       <c r="B64">
-        <v>1.3595833333333334</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2">
+        <v>1.4558333333333333</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65">
         <v>1280</v>
       </c>
       <c r="B65">
-        <v>1.3644999999999998</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2">
+        <v>1.4589999999999999</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66">
         <v>1300</v>
       </c>
       <c r="B66">
-        <v>1.3693333333333335</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2">
+        <v>1.4633333333333336</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67">
         <v>1320</v>
       </c>
       <c r="B67">
-        <v>1.3727499999999999</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2">
+        <v>1.4654999999999998</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68">
         <v>1340</v>
       </c>
       <c r="B68">
-        <v>1.3755000000000002</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2">
+        <v>1.4690000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69">
         <v>1360</v>
       </c>
       <c r="B69">
-        <v>1.3789166666666668</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2">
+        <v>1.4726666666666668</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70">
         <v>1380</v>
       </c>
       <c r="B70">
-        <v>1.3813333333333335</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2">
+        <v>1.4763333333333335</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71">
         <v>1400</v>
       </c>
       <c r="B71">
-        <v>1.3835000000000002</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2">
+        <v>1.4790000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72">
         <v>1420</v>
       </c>
       <c r="B72">
-        <v>1.3849999999999998</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2">
+        <v>1.4814999999999998</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73">
         <v>1440</v>
       </c>
       <c r="B73">
-        <v>1.3878333333333335</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2">
+        <v>1.4848333333333334</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74">
         <v>1460</v>
       </c>
       <c r="B74">
-        <v>1.3884166666666666</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2">
+        <v>1.4871666666666667</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75">
         <v>1480</v>
       </c>
       <c r="B75">
-        <v>1.3902500000000002</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2">
+        <v>1.4895000000000003</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76">
         <v>1500</v>
       </c>
       <c r="B76">
-        <v>1.3920833333333333</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2">
+        <v>1.4913333333333334</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77">
         <v>1520</v>
       </c>
       <c r="B77">
-        <v>1.3923333333333334</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2">
+        <v>1.4928333333333335</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78">
         <v>1540</v>
       </c>
       <c r="B78">
-        <v>1.3918333333333333</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2">
+        <v>1.4933333333333332</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79">
         <v>1560</v>
       </c>
       <c r="B79">
-        <v>1.3904166666666666</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2">
+        <v>1.4926666666666666</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80">
         <v>1580</v>
       </c>
       <c r="B80">
-        <v>1.3888333333333334</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2">
+        <v>1.4908333333333335</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81">
         <v>1600</v>
       </c>
       <c r="B81">
-        <v>1.3871666666666669</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2">
+        <v>1.4901666666666669</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82">
         <v>1620</v>
       </c>
       <c r="B82">
-        <v>1.3852500000000001</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2">
+        <v>1.4885000000000002</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>1640</v>
       </c>
       <c r="B83">
-        <v>1.3841666666666668</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2">
+        <v>1.4871666666666667</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84">
         <v>1660</v>
       </c>
       <c r="B84">
-        <v>1.3819166666666667</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2">
+        <v>1.4846666666666666</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85">
         <v>1680</v>
       </c>
       <c r="B85">
-        <v>1.3813333333333335</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2">
+        <v>1.4843333333333335</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86">
         <v>1700</v>
       </c>
       <c r="B86">
-        <v>1.3767500000000001</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2">
+        <v>1.4805000000000001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87">
         <v>1720</v>
       </c>
       <c r="B87">
-        <v>1.3728333333333333</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2">
+        <v>1.4768333333333334</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88">
         <v>1740</v>
       </c>
       <c r="B88">
-        <v>1.3710833333333334</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2">
+        <v>1.4753333333333334</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>1760</v>
       </c>
       <c r="B89">
-        <v>1.3665833333333333</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2">
+        <v>1.4718333333333333</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>1780</v>
       </c>
       <c r="B90">
-        <v>1.36375</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2">
+        <v>1.4690000000000001</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91">
         <v>1800</v>
       </c>
       <c r="B91">
-        <v>1.3614166666666665</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2">
+        <v>1.4661666666666664</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>1820</v>
       </c>
       <c r="B92">
-        <v>1.3594166666666667</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2">
+        <v>1.4636666666666667</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>1840</v>
       </c>
       <c r="B93">
-        <v>1.3544166666666668</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2">
+        <v>1.4596666666666669</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>1860</v>
       </c>
       <c r="B94">
-        <v>1.3506666666666667</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2">
+        <v>1.4571666666666667</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95">
         <v>1880</v>
       </c>
       <c r="B95">
-        <v>1.3479166666666669</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2">
+        <v>1.4541666666666668</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96">
         <v>1900</v>
       </c>
       <c r="B96">
-        <v>1.3458333333333334</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2">
+        <v>1.4528333333333334</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97">
         <v>1920</v>
       </c>
       <c r="B97">
-        <v>1.3448333333333333</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2">
+        <v>1.4508333333333334</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98">
         <v>1940</v>
       </c>
       <c r="B98">
-        <v>1.3415833333333333</v>
-      </c>
-    </row>
-    <row r="99" spans="1:2">
+        <v>1.4483333333333333</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99">
         <v>1960</v>
       </c>
       <c r="B99">
-        <v>1.3401666666666665</v>
-      </c>
-    </row>
-    <row r="100" spans="1:2">
+        <v>1.4466666666666665</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100">
         <v>1980</v>
       </c>
       <c r="B100">
-        <v>1.3374166666666669</v>
-      </c>
-    </row>
-    <row r="101" spans="1:2">
+        <v>1.4436666666666669</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101">
         <v>2000</v>
       </c>
       <c r="B101">
-        <v>1.3350833333333334</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2">
+        <v>1.4418333333333333</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102">
         <v>2020</v>
       </c>
       <c r="B102">
-        <v>1.3336666666666666</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2">
+        <v>1.4401666666666666</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103">
         <v>2040</v>
       </c>
       <c r="B103">
-        <v>1.3308333333333331</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2">
+        <v>1.4378333333333331</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104">
         <v>2060</v>
       </c>
       <c r="B104">
-        <v>1.3310833333333334</v>
-      </c>
-    </row>
-    <row r="105" spans="1:2">
+        <v>1.4368333333333334</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105">
         <v>2080</v>
       </c>
       <c r="B105">
-        <v>1.3273333333333333</v>
-      </c>
-    </row>
-    <row r="106" spans="1:2">
+        <v>1.4343333333333332</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106">
         <v>2100</v>
       </c>
       <c r="B106">
-        <v>1.3260000000000001</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2">
+        <v>1.4330000000000001</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107">
         <v>2120</v>
       </c>
       <c r="B107">
-        <v>1.3259166666666669</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2">
+        <v>1.4316666666666669</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108">
         <v>2140</v>
       </c>
       <c r="B108">
-        <v>1.3255000000000001</v>
-      </c>
-    </row>
-    <row r="109" spans="1:2">
+        <v>1.4305000000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109">
         <v>2160</v>
       </c>
       <c r="B109">
-        <v>1.3220833333333335</v>
-      </c>
-    </row>
-    <row r="110" spans="1:2">
+        <v>1.4288333333333334</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110">
         <v>2180</v>
       </c>
       <c r="B110">
-        <v>1.3198333333333334</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2">
+        <v>1.4258333333333335</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111">
         <v>2200</v>
       </c>
       <c r="B111">
-        <v>1.3165833333333332</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2">
+        <v>1.4238333333333333</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112">
         <v>2220</v>
       </c>
       <c r="B112">
-        <v>1.31575</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2">
+        <v>1.4219999999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113">
         <v>2240</v>
       </c>
       <c r="B113">
-        <v>1.3143333333333331</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2">
+        <v>1.4198333333333331</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114">
         <v>2260</v>
       </c>
       <c r="B114">
-        <v>1.3128333333333333</v>
-      </c>
-    </row>
-    <row r="115" spans="1:2">
+        <v>1.4178333333333333</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115">
         <v>2280</v>
       </c>
       <c r="B115">
-        <v>1.3118333333333332</v>
-      </c>
-    </row>
-    <row r="116" spans="1:2">
+        <v>1.4163333333333332</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116">
         <v>2300</v>
       </c>
       <c r="B116">
-        <v>1.3110000000000002</v>
-      </c>
-    </row>
-    <row r="117" spans="1:2">
+        <v>1.4145000000000001</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117">
         <v>2320</v>
       </c>
       <c r="B117">
-        <v>1.3096666666666665</v>
-      </c>
-    </row>
-    <row r="118" spans="1:2">
+        <v>1.4121666666666666</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118">
         <v>2340</v>
       </c>
       <c r="B118">
-        <v>1.3095000000000003</v>
-      </c>
-    </row>
-    <row r="119" spans="1:2">
+        <v>1.4110000000000003</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119">
         <v>2360</v>
       </c>
       <c r="B119">
-        <v>1.3108333333333333</v>
-      </c>
-    </row>
-    <row r="120" spans="1:2">
+        <v>1.4108333333333334</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120">
         <v>2380</v>
       </c>
       <c r="B120">
-        <v>1.3085</v>
-      </c>
-    </row>
-    <row r="121" spans="1:2">
+        <v>1.4085000000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121">
         <v>2400</v>
       </c>
       <c r="B121">
-        <v>1.3104999999999998</v>
-      </c>
-    </row>
-    <row r="122" spans="1:2">
+        <v>1.4084999999999999</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122">
         <v>2420</v>
       </c>
       <c r="B122">
-        <v>1.3110000000000002</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2">
+        <v>1.4085000000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123">
         <v>2440</v>
       </c>
       <c r="B123">
-        <v>1.3104166666666666</v>
-      </c>
-    </row>
-    <row r="124" spans="1:2">
+        <v>1.4076666666666666</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124">
         <v>2460</v>
       </c>
       <c r="B124">
-        <v>1.3105</v>
-      </c>
-    </row>
-    <row r="125" spans="1:2">
+        <v>1.407</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125">
         <v>2480</v>
       </c>
       <c r="B125">
-        <v>1.3102500000000001</v>
-      </c>
-    </row>
-    <row r="126" spans="1:2">
+        <v>1.4065000000000001</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126">
         <v>2500</v>
       </c>
       <c r="B126">
-        <v>1.3091666666666668</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2">
+        <v>1.4051666666666669</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127">
         <v>2520</v>
       </c>
       <c r="B127">
-        <v>1.3098333333333334</v>
-      </c>
-    </row>
-    <row r="128" spans="1:2">
+        <v>1.4053333333333333</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128">
         <v>2540</v>
       </c>
       <c r="B128">
-        <v>1.3116666666666665</v>
-      </c>
-    </row>
-    <row r="129" spans="1:2">
+        <v>1.4056666666666666</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129">
         <v>2560</v>
       </c>
       <c r="B129">
-        <v>1.3119166666666668</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2">
+        <v>1.4041666666666668</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130">
         <v>2580</v>
       </c>
       <c r="B130">
-        <v>1.31325</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2">
+        <v>1.4035</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131">
         <v>2600</v>
       </c>
       <c r="B131">
-        <v>1.3138333333333332</v>
-      </c>
-    </row>
-    <row r="132" spans="1:2">
+        <v>1.4023333333333332</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132">
         <v>2620</v>
       </c>
       <c r="B132">
-        <v>1.3142499999999999</v>
-      </c>
-    </row>
-    <row r="133" spans="1:2">
+        <v>1.4019999999999999</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133">
         <v>2640</v>
       </c>
       <c r="B133">
-        <v>1.3139999999999998</v>
-      </c>
-    </row>
-    <row r="134" spans="1:2">
+        <v>1.4014999999999997</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134">
         <v>2660</v>
       </c>
       <c r="B134">
-        <v>1.3120833333333335</v>
-      </c>
-    </row>
-    <row r="135" spans="1:2">
+        <v>1.3998333333333335</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135">
         <v>2680</v>
       </c>
       <c r="B135">
-        <v>1.3102499999999999</v>
-      </c>
-    </row>
-    <row r="136" spans="1:2">
+        <v>1.399</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136">
         <v>2700</v>
       </c>
       <c r="B136">
-        <v>1.3091666666666666</v>
-      </c>
-    </row>
-    <row r="137" spans="1:2">
+        <v>1.3981666666666666</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137">
         <v>2720</v>
       </c>
       <c r="B137">
-        <v>1.3086666666666666</v>
-      </c>
-    </row>
-    <row r="138" spans="1:2">
+        <v>1.3976666666666666</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138">
         <v>2740</v>
       </c>
       <c r="B138">
-        <v>1.3089999999999999</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2">
+        <v>1.3975</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139">
         <v>2760</v>
       </c>
       <c r="B139">
-        <v>1.3064166666666666</v>
-      </c>
-    </row>
-    <row r="140" spans="1:2">
+        <v>1.3966666666666665</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140">
         <v>2780</v>
       </c>
       <c r="B140">
-        <v>1.3064166666666668</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2">
+        <v>1.3966666666666667</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141">
         <v>2800</v>
       </c>
       <c r="B141">
-        <v>1.306</v>
-      </c>
-    </row>
-    <row r="142" spans="1:2">
+        <v>1.3960000000000001</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142">
         <v>2820</v>
       </c>
       <c r="B142">
-        <v>1.3067500000000003</v>
-      </c>
-    </row>
-    <row r="143" spans="1:2">
+        <v>1.3965000000000003</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143">
         <v>2840</v>
       </c>
       <c r="B143">
-        <v>1.3045000000000002</v>
-      </c>
-    </row>
-    <row r="144" spans="1:2">
+        <v>1.3955000000000002</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144">
         <v>2860</v>
       </c>
       <c r="B144">
-        <v>1.3037499999999997</v>
-      </c>
-    </row>
-    <row r="145" spans="1:2">
+        <v>1.3949999999999998</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145">
         <v>2880</v>
       </c>
       <c r="B145">
-        <v>1.3001666666666667</v>
+        <v>1.3941666666666668</v>
       </c>
     </row>
   </sheetData>

--- a/NoInitialDeath/AerobicNID/OdorAero.xlsx
+++ b/NoInitialDeath/AerobicNID/OdorAero.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/fa296b65799f4cf3/Growth-Curves/CF-Growth-Curves/NoInitialDeath/AerobicNID/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="8_{3088D1FF-25ED-6049-9274-40EFC49AFD60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9223C5F8-0CD6-084E-B2E3-39ADA1984C80}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{3088D1FF-25ED-6049-9274-40EFC49AFD60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7D702AF6-6991-C249-809F-A35B6E84B021}"/>
   <bookViews>
     <workbookView xWindow="1980" yWindow="2500" windowWidth="26440" windowHeight="14100" xr2:uid="{97733456-4D67-AB47-90E5-D71233215CC7}"/>
   </bookViews>
@@ -83,6 +83,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -384,8 +388,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A641D5D2-4723-904F-9CD4-BF6D9244CA96}">
   <dimension ref="A1:B145"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="G148" sqref="G148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -395,7 +399,7 @@
         <v>0</v>
       </c>
       <c r="B1">
-        <v>9.8166666666666666E-2</v>
+        <v>1.0916666666666672E-2</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -403,7 +407,7 @@
         <v>20</v>
       </c>
       <c r="B2">
-        <v>9.7666666666666666E-2</v>
+        <v>1.0666666666666672E-2</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -411,7 +415,7 @@
         <v>40</v>
       </c>
       <c r="B3">
-        <v>0.10033333333333333</v>
+        <v>1.3083333333333336E-2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -419,7 +423,7 @@
         <v>60</v>
       </c>
       <c r="B4">
-        <v>0.10433333333333333</v>
+        <v>1.5833333333333338E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -427,7 +431,7 @@
         <v>80</v>
       </c>
       <c r="B5">
-        <v>0.1125</v>
+        <v>6.5000000000000197E-3</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -435,7 +439,7 @@
         <v>100</v>
       </c>
       <c r="B6">
-        <v>0.1265</v>
+        <v>1.7250000000000015E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -443,7 +447,7 @@
         <v>120</v>
       </c>
       <c r="B7">
-        <v>0.14916666666666667</v>
+        <v>3.7916666666666682E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -451,7 +455,7 @@
         <v>140</v>
       </c>
       <c r="B8">
-        <v>0.18799999999999997</v>
+        <v>7.3749999999999982E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -459,7 +463,7 @@
         <v>160</v>
       </c>
       <c r="B9">
-        <v>0.24650000000000002</v>
+        <v>0.13075000000000003</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -467,7 +471,7 @@
         <v>180</v>
       </c>
       <c r="B10">
-        <v>0.32700000000000001</v>
+        <v>0.21025000000000002</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -475,7 +479,7 @@
         <v>200</v>
       </c>
       <c r="B11">
-        <v>0.41199999999999998</v>
+        <v>0.29374999999999996</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -483,7 +487,7 @@
         <v>220</v>
       </c>
       <c r="B12">
-        <v>0.48133333333333334</v>
+        <v>0.36233333333333334</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -491,7 +495,7 @@
         <v>240</v>
       </c>
       <c r="B13">
-        <v>0.54700000000000015</v>
+        <v>0.42775000000000019</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -499,7 +503,7 @@
         <v>260</v>
       </c>
       <c r="B14">
-        <v>0.62049999999999994</v>
+        <v>0.50124999999999997</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -507,7 +511,7 @@
         <v>280</v>
       </c>
       <c r="B15">
-        <v>0.69416666666666671</v>
+        <v>0.57316666666666671</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -515,7 +519,7 @@
         <v>300</v>
       </c>
       <c r="B16">
-        <v>0.76183333333333325</v>
+        <v>0.6403333333333332</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -523,7 +527,7 @@
         <v>320</v>
       </c>
       <c r="B17">
-        <v>0.80866666666666676</v>
+        <v>0.68591666666666673</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -531,7 +535,7 @@
         <v>340</v>
       </c>
       <c r="B18">
-        <v>0.84716666666666673</v>
+        <v>0.72416666666666674</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -539,7 +543,7 @@
         <v>360</v>
       </c>
       <c r="B19">
-        <v>0.88416666666666666</v>
+        <v>0.76016666666666666</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -547,7 +551,7 @@
         <v>380</v>
       </c>
       <c r="B20">
-        <v>0.91833333333333333</v>
+        <v>0.79408333333333336</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -555,7 +559,7 @@
         <v>400</v>
       </c>
       <c r="B21">
-        <v>0.95033333333333336</v>
+        <v>0.82633333333333336</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -563,7 +567,7 @@
         <v>420</v>
       </c>
       <c r="B22">
-        <v>0.97933333333333328</v>
+        <v>0.85433333333333328</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -571,7 +575,7 @@
         <v>440</v>
       </c>
       <c r="B23">
-        <v>1.0054999999999998</v>
+        <v>0.88049999999999984</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -579,7 +583,7 @@
         <v>460</v>
       </c>
       <c r="B24">
-        <v>1.03</v>
+        <v>0.90325</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -587,7 +591,7 @@
         <v>480</v>
       </c>
       <c r="B25">
-        <v>1.0525</v>
+        <v>0.92574999999999996</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -595,7 +599,7 @@
         <v>500</v>
       </c>
       <c r="B26">
-        <v>1.0735000000000001</v>
+        <v>0.94625000000000015</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -603,7 +607,7 @@
         <v>520</v>
       </c>
       <c r="B27">
-        <v>1.0968333333333333</v>
+        <v>0.96933333333333338</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -611,7 +615,7 @@
         <v>540</v>
       </c>
       <c r="B28">
-        <v>1.1234999999999999</v>
+        <v>0.99574999999999991</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -619,7 +623,7 @@
         <v>560</v>
       </c>
       <c r="B29">
-        <v>1.1506666666666667</v>
+        <v>1.0236666666666667</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -627,7 +631,7 @@
         <v>580</v>
       </c>
       <c r="B30">
-        <v>1.1746666666666667</v>
+        <v>1.0469166666666667</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -635,7 +639,7 @@
         <v>600</v>
       </c>
       <c r="B31">
-        <v>1.196</v>
+        <v>1.06775</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -643,7 +647,7 @@
         <v>620</v>
       </c>
       <c r="B32">
-        <v>1.2144999999999999</v>
+        <v>1.0859999999999999</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -651,7 +655,7 @@
         <v>640</v>
       </c>
       <c r="B33">
-        <v>1.2303333333333335</v>
+        <v>1.1018333333333334</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -659,7 +663,7 @@
         <v>660</v>
       </c>
       <c r="B34">
-        <v>1.2441666666666666</v>
+        <v>1.1149166666666666</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -667,7 +671,7 @@
         <v>680</v>
       </c>
       <c r="B35">
-        <v>1.2571666666666668</v>
+        <v>1.1274166666666667</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -675,7 +679,7 @@
         <v>700</v>
       </c>
       <c r="B36">
-        <v>1.2694999999999999</v>
+        <v>1.1399999999999999</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -683,7 +687,7 @@
         <v>720</v>
       </c>
       <c r="B37">
-        <v>1.2809999999999999</v>
+        <v>1.1515</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -691,7 +695,7 @@
         <v>740</v>
       </c>
       <c r="B38">
-        <v>1.2924999999999998</v>
+        <v>1.1629999999999998</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -699,7 +703,7 @@
         <v>760</v>
       </c>
       <c r="B39">
-        <v>1.3025</v>
+        <v>1.17275</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -707,7 +711,7 @@
         <v>780</v>
       </c>
       <c r="B40">
-        <v>1.3114999999999999</v>
+        <v>1.1812499999999999</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
@@ -715,7 +719,7 @@
         <v>800</v>
       </c>
       <c r="B41">
-        <v>1.3208333333333335</v>
+        <v>1.1905833333333335</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
@@ -723,7 +727,7 @@
         <v>820</v>
       </c>
       <c r="B42">
-        <v>1.3286666666666667</v>
+        <v>1.1986666666666665</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -731,7 +735,7 @@
         <v>840</v>
       </c>
       <c r="B43">
-        <v>1.3375000000000001</v>
+        <v>1.2075</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -739,7 +743,7 @@
         <v>860</v>
       </c>
       <c r="B44">
-        <v>1.3464999999999998</v>
+        <v>1.2172499999999997</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -747,7 +751,7 @@
         <v>880</v>
       </c>
       <c r="B45">
-        <v>1.3550000000000002</v>
+        <v>1.2262500000000003</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -755,7 +759,7 @@
         <v>900</v>
       </c>
       <c r="B46">
-        <v>1.3645000000000003</v>
+        <v>1.2360000000000002</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -763,7 +767,7 @@
         <v>920</v>
       </c>
       <c r="B47">
-        <v>1.3753333333333335</v>
+        <v>1.2490833333333335</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -771,7 +775,7 @@
         <v>940</v>
       </c>
       <c r="B48">
-        <v>1.3836666666666666</v>
+        <v>1.2589166666666667</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -779,7 +783,7 @@
         <v>960</v>
       </c>
       <c r="B49">
-        <v>1.3906666666666669</v>
+        <v>1.2666666666666671</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -787,7 +791,7 @@
         <v>980</v>
       </c>
       <c r="B50">
-        <v>1.3956666666666668</v>
+        <v>1.2731666666666668</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -795,7 +799,7 @@
         <v>1000</v>
       </c>
       <c r="B51">
-        <v>1.4006666666666667</v>
+        <v>1.2784166666666668</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -803,7 +807,7 @@
         <v>1020</v>
       </c>
       <c r="B52">
-        <v>1.4053333333333331</v>
+        <v>1.284833333333333</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -811,7 +815,7 @@
         <v>1040</v>
       </c>
       <c r="B53">
-        <v>1.4101666666666668</v>
+        <v>1.2906666666666669</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -819,7 +823,7 @@
         <v>1060</v>
       </c>
       <c r="B54">
-        <v>1.4145000000000001</v>
+        <v>1.29725</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -827,7 +831,7 @@
         <v>1080</v>
       </c>
       <c r="B55">
-        <v>1.4188333333333334</v>
+        <v>1.3038333333333334</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -835,7 +839,7 @@
         <v>1100</v>
       </c>
       <c r="B56">
-        <v>1.4235</v>
+        <v>1.31125</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -843,7 +847,7 @@
         <v>1120</v>
       </c>
       <c r="B57">
-        <v>1.4281666666666668</v>
+        <v>1.3166666666666669</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -851,7 +855,7 @@
         <v>1140</v>
       </c>
       <c r="B58">
-        <v>1.4324999999999999</v>
+        <v>1.32375</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -859,7 +863,7 @@
         <v>1160</v>
       </c>
       <c r="B59">
-        <v>1.4366666666666665</v>
+        <v>1.3299166666666666</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -867,7 +871,7 @@
         <v>1180</v>
       </c>
       <c r="B60">
-        <v>1.4406666666666668</v>
+        <v>1.3419166666666666</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -875,7 +879,7 @@
         <v>1200</v>
       </c>
       <c r="B61">
-        <v>1.4438333333333333</v>
+        <v>1.3465833333333332</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -883,7 +887,7 @@
         <v>1220</v>
       </c>
       <c r="B62">
-        <v>1.4484999999999999</v>
+        <v>1.3534999999999999</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -891,7 +895,7 @@
         <v>1240</v>
       </c>
       <c r="B63">
-        <v>1.4531666666666665</v>
+        <v>1.3566666666666665</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -899,7 +903,7 @@
         <v>1260</v>
       </c>
       <c r="B64">
-        <v>1.4558333333333333</v>
+        <v>1.3595833333333334</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -907,7 +911,7 @@
         <v>1280</v>
       </c>
       <c r="B65">
-        <v>1.4589999999999999</v>
+        <v>1.3644999999999998</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -915,7 +919,7 @@
         <v>1300</v>
       </c>
       <c r="B66">
-        <v>1.4633333333333336</v>
+        <v>1.3693333333333335</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -923,7 +927,7 @@
         <v>1320</v>
       </c>
       <c r="B67">
-        <v>1.4654999999999998</v>
+        <v>1.3727499999999999</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.2">
@@ -931,7 +935,7 @@
         <v>1340</v>
       </c>
       <c r="B68">
-        <v>1.4690000000000001</v>
+        <v>1.3755000000000002</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -939,7 +943,7 @@
         <v>1360</v>
       </c>
       <c r="B69">
-        <v>1.4726666666666668</v>
+        <v>1.3789166666666668</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -947,7 +951,7 @@
         <v>1380</v>
       </c>
       <c r="B70">
-        <v>1.4763333333333335</v>
+        <v>1.3813333333333335</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -955,7 +959,7 @@
         <v>1400</v>
       </c>
       <c r="B71">
-        <v>1.4790000000000001</v>
+        <v>1.3835000000000002</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -963,7 +967,7 @@
         <v>1420</v>
       </c>
       <c r="B72">
-        <v>1.4814999999999998</v>
+        <v>1.3849999999999998</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -971,7 +975,7 @@
         <v>1440</v>
       </c>
       <c r="B73">
-        <v>1.4848333333333334</v>
+        <v>1.3878333333333335</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -979,7 +983,7 @@
         <v>1460</v>
       </c>
       <c r="B74">
-        <v>1.4871666666666667</v>
+        <v>1.3884166666666666</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -987,7 +991,7 @@
         <v>1480</v>
       </c>
       <c r="B75">
-        <v>1.4895000000000003</v>
+        <v>1.3902500000000002</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -995,7 +999,7 @@
         <v>1500</v>
       </c>
       <c r="B76">
-        <v>1.4913333333333334</v>
+        <v>1.3920833333333333</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -1003,7 +1007,7 @@
         <v>1520</v>
       </c>
       <c r="B77">
-        <v>1.4928333333333335</v>
+        <v>1.3923333333333334</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -1011,7 +1015,7 @@
         <v>1540</v>
       </c>
       <c r="B78">
-        <v>1.4933333333333332</v>
+        <v>1.3918333333333333</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -1019,7 +1023,7 @@
         <v>1560</v>
       </c>
       <c r="B79">
-        <v>1.4926666666666666</v>
+        <v>1.3904166666666666</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -1027,7 +1031,7 @@
         <v>1580</v>
       </c>
       <c r="B80">
-        <v>1.4908333333333335</v>
+        <v>1.3888333333333334</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -1035,7 +1039,7 @@
         <v>1600</v>
       </c>
       <c r="B81">
-        <v>1.4901666666666669</v>
+        <v>1.3871666666666669</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -1043,7 +1047,7 @@
         <v>1620</v>
       </c>
       <c r="B82">
-        <v>1.4885000000000002</v>
+        <v>1.3852500000000001</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -1051,7 +1055,7 @@
         <v>1640</v>
       </c>
       <c r="B83">
-        <v>1.4871666666666667</v>
+        <v>1.3841666666666668</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -1059,7 +1063,7 @@
         <v>1660</v>
       </c>
       <c r="B84">
-        <v>1.4846666666666666</v>
+        <v>1.3819166666666667</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -1067,7 +1071,7 @@
         <v>1680</v>
       </c>
       <c r="B85">
-        <v>1.4843333333333335</v>
+        <v>1.3813333333333335</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -1075,7 +1079,7 @@
         <v>1700</v>
       </c>
       <c r="B86">
-        <v>1.4805000000000001</v>
+        <v>1.3767500000000001</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -1083,7 +1087,7 @@
         <v>1720</v>
       </c>
       <c r="B87">
-        <v>1.4768333333333334</v>
+        <v>1.3728333333333333</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -1091,7 +1095,7 @@
         <v>1740</v>
       </c>
       <c r="B88">
-        <v>1.4753333333333334</v>
+        <v>1.3710833333333334</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -1099,7 +1103,7 @@
         <v>1760</v>
       </c>
       <c r="B89">
-        <v>1.4718333333333333</v>
+        <v>1.3665833333333333</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -1107,7 +1111,7 @@
         <v>1780</v>
       </c>
       <c r="B90">
-        <v>1.4690000000000001</v>
+        <v>1.36375</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -1115,7 +1119,7 @@
         <v>1800</v>
       </c>
       <c r="B91">
-        <v>1.4661666666666664</v>
+        <v>1.3614166666666665</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -1123,7 +1127,7 @@
         <v>1820</v>
       </c>
       <c r="B92">
-        <v>1.4636666666666667</v>
+        <v>1.3594166666666667</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -1131,7 +1135,7 @@
         <v>1840</v>
       </c>
       <c r="B93">
-        <v>1.4596666666666669</v>
+        <v>1.3544166666666668</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -1139,7 +1143,7 @@
         <v>1860</v>
       </c>
       <c r="B94">
-        <v>1.4571666666666667</v>
+        <v>1.3506666666666667</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -1147,7 +1151,7 @@
         <v>1880</v>
       </c>
       <c r="B95">
-        <v>1.4541666666666668</v>
+        <v>1.3479166666666669</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -1155,7 +1159,7 @@
         <v>1900</v>
       </c>
       <c r="B96">
-        <v>1.4528333333333334</v>
+        <v>1.3458333333333334</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -1163,7 +1167,7 @@
         <v>1920</v>
       </c>
       <c r="B97">
-        <v>1.4508333333333334</v>
+        <v>1.3448333333333333</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -1171,7 +1175,7 @@
         <v>1940</v>
       </c>
       <c r="B98">
-        <v>1.4483333333333333</v>
+        <v>1.3415833333333333</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -1179,7 +1183,7 @@
         <v>1960</v>
       </c>
       <c r="B99">
-        <v>1.4466666666666665</v>
+        <v>1.3401666666666665</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -1187,7 +1191,7 @@
         <v>1980</v>
       </c>
       <c r="B100">
-        <v>1.4436666666666669</v>
+        <v>1.3374166666666669</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -1195,7 +1199,7 @@
         <v>2000</v>
       </c>
       <c r="B101">
-        <v>1.4418333333333333</v>
+        <v>1.3350833333333334</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -1203,7 +1207,7 @@
         <v>2020</v>
       </c>
       <c r="B102">
-        <v>1.4401666666666666</v>
+        <v>1.3336666666666666</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -1211,7 +1215,7 @@
         <v>2040</v>
       </c>
       <c r="B103">
-        <v>1.4378333333333331</v>
+        <v>1.3308333333333331</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -1219,7 +1223,7 @@
         <v>2060</v>
       </c>
       <c r="B104">
-        <v>1.4368333333333334</v>
+        <v>1.3310833333333334</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -1227,7 +1231,7 @@
         <v>2080</v>
       </c>
       <c r="B105">
-        <v>1.4343333333333332</v>
+        <v>1.3273333333333333</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -1235,7 +1239,7 @@
         <v>2100</v>
       </c>
       <c r="B106">
-        <v>1.4330000000000001</v>
+        <v>1.3260000000000001</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -1243,7 +1247,7 @@
         <v>2120</v>
       </c>
       <c r="B107">
-        <v>1.4316666666666669</v>
+        <v>1.3259166666666669</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -1251,7 +1255,7 @@
         <v>2140</v>
       </c>
       <c r="B108">
-        <v>1.4305000000000001</v>
+        <v>1.3255000000000001</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -1259,7 +1263,7 @@
         <v>2160</v>
       </c>
       <c r="B109">
-        <v>1.4288333333333334</v>
+        <v>1.3220833333333335</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -1267,7 +1271,7 @@
         <v>2180</v>
       </c>
       <c r="B110">
-        <v>1.4258333333333335</v>
+        <v>1.3198333333333334</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -1275,7 +1279,7 @@
         <v>2200</v>
       </c>
       <c r="B111">
-        <v>1.4238333333333333</v>
+        <v>1.3165833333333332</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
@@ -1283,7 +1287,7 @@
         <v>2220</v>
       </c>
       <c r="B112">
-        <v>1.4219999999999999</v>
+        <v>1.31575</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
@@ -1291,7 +1295,7 @@
         <v>2240</v>
       </c>
       <c r="B113">
-        <v>1.4198333333333331</v>
+        <v>1.3143333333333331</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
@@ -1299,7 +1303,7 @@
         <v>2260</v>
       </c>
       <c r="B114">
-        <v>1.4178333333333333</v>
+        <v>1.3128333333333333</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
@@ -1307,7 +1311,7 @@
         <v>2280</v>
       </c>
       <c r="B115">
-        <v>1.4163333333333332</v>
+        <v>1.3118333333333332</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
@@ -1315,7 +1319,7 @@
         <v>2300</v>
       </c>
       <c r="B116">
-        <v>1.4145000000000001</v>
+        <v>1.3110000000000002</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -1323,7 +1327,7 @@
         <v>2320</v>
       </c>
       <c r="B117">
-        <v>1.4121666666666666</v>
+        <v>1.3096666666666665</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
@@ -1331,7 +1335,7 @@
         <v>2340</v>
       </c>
       <c r="B118">
-        <v>1.4110000000000003</v>
+        <v>1.3095000000000003</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -1339,7 +1343,7 @@
         <v>2360</v>
       </c>
       <c r="B119">
-        <v>1.4108333333333334</v>
+        <v>1.3108333333333333</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
@@ -1347,7 +1351,7 @@
         <v>2380</v>
       </c>
       <c r="B120">
-        <v>1.4085000000000001</v>
+        <v>1.3085</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -1355,7 +1359,7 @@
         <v>2400</v>
       </c>
       <c r="B121">
-        <v>1.4084999999999999</v>
+        <v>1.3104999999999998</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
@@ -1363,7 +1367,7 @@
         <v>2420</v>
       </c>
       <c r="B122">
-        <v>1.4085000000000001</v>
+        <v>1.3110000000000002</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
@@ -1371,7 +1375,7 @@
         <v>2440</v>
       </c>
       <c r="B123">
-        <v>1.4076666666666666</v>
+        <v>1.3104166666666666</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
@@ -1379,7 +1383,7 @@
         <v>2460</v>
       </c>
       <c r="B124">
-        <v>1.407</v>
+        <v>1.3105</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
@@ -1387,7 +1391,7 @@
         <v>2480</v>
       </c>
       <c r="B125">
-        <v>1.4065000000000001</v>
+        <v>1.3102500000000001</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
@@ -1395,7 +1399,7 @@
         <v>2500</v>
       </c>
       <c r="B126">
-        <v>1.4051666666666669</v>
+        <v>1.3091666666666668</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
@@ -1403,7 +1407,7 @@
         <v>2520</v>
       </c>
       <c r="B127">
-        <v>1.4053333333333333</v>
+        <v>1.3098333333333334</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
@@ -1411,7 +1415,7 @@
         <v>2540</v>
       </c>
       <c r="B128">
-        <v>1.4056666666666666</v>
+        <v>1.3116666666666665</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
@@ -1419,7 +1423,7 @@
         <v>2560</v>
       </c>
       <c r="B129">
-        <v>1.4041666666666668</v>
+        <v>1.3119166666666668</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
@@ -1427,7 +1431,7 @@
         <v>2580</v>
       </c>
       <c r="B130">
-        <v>1.4035</v>
+        <v>1.31325</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
@@ -1435,7 +1439,7 @@
         <v>2600</v>
       </c>
       <c r="B131">
-        <v>1.4023333333333332</v>
+        <v>1.3138333333333332</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
@@ -1443,7 +1447,7 @@
         <v>2620</v>
       </c>
       <c r="B132">
-        <v>1.4019999999999999</v>
+        <v>1.3142499999999999</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
@@ -1451,7 +1455,7 @@
         <v>2640</v>
       </c>
       <c r="B133">
-        <v>1.4014999999999997</v>
+        <v>1.3139999999999998</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
@@ -1459,7 +1463,7 @@
         <v>2660</v>
       </c>
       <c r="B134">
-        <v>1.3998333333333335</v>
+        <v>1.3120833333333335</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
@@ -1467,7 +1471,7 @@
         <v>2680</v>
       </c>
       <c r="B135">
-        <v>1.399</v>
+        <v>1.3102499999999999</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
@@ -1475,7 +1479,7 @@
         <v>2700</v>
       </c>
       <c r="B136">
-        <v>1.3981666666666666</v>
+        <v>1.3091666666666666</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
@@ -1483,7 +1487,7 @@
         <v>2720</v>
       </c>
       <c r="B137">
-        <v>1.3976666666666666</v>
+        <v>1.3086666666666666</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
@@ -1491,7 +1495,7 @@
         <v>2740</v>
       </c>
       <c r="B138">
-        <v>1.3975</v>
+        <v>1.3089999999999999</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
@@ -1499,7 +1503,7 @@
         <v>2760</v>
       </c>
       <c r="B139">
-        <v>1.3966666666666665</v>
+        <v>1.3064166666666666</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
@@ -1507,7 +1511,7 @@
         <v>2780</v>
       </c>
       <c r="B140">
-        <v>1.3966666666666667</v>
+        <v>1.3064166666666668</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
@@ -1515,7 +1519,7 @@
         <v>2800</v>
       </c>
       <c r="B141">
-        <v>1.3960000000000001</v>
+        <v>1.306</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
@@ -1523,7 +1527,7 @@
         <v>2820</v>
       </c>
       <c r="B142">
-        <v>1.3965000000000003</v>
+        <v>1.3067500000000003</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -1531,7 +1535,7 @@
         <v>2840</v>
       </c>
       <c r="B143">
-        <v>1.3955000000000002</v>
+        <v>1.3045000000000002</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
@@ -1539,7 +1543,7 @@
         <v>2860</v>
       </c>
       <c r="B144">
-        <v>1.3949999999999998</v>
+        <v>1.3037499999999997</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
@@ -1547,7 +1551,7 @@
         <v>2880</v>
       </c>
       <c r="B145">
-        <v>1.3941666666666668</v>
+        <v>1.3001666666666667</v>
       </c>
     </row>
   </sheetData>
